--- a/01.AndroidArchitecture/01_AndroidArchitecture_Overview_20201113.xlsx
+++ b/01.AndroidArchitecture/01_AndroidArchitecture_Overview_20201113.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AndroidKnowledge\01.AndroidArchitecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ACE15B-0626-4433-825E-EABB17047340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDBF0A0-6F01-48E5-BFCC-C882CF31BE0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
   <si>
     <t>2020/01/07</t>
     <phoneticPr fontId="5"/>
@@ -250,13 +250,71 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <t>Tên đối t</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
+    <t>Thông tin chi tiết</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Example</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>VERSIONING UP HISTORY</t>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Ver.</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>Phân loại</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Overview (EN)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>Thông tin chi tiết</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>Example</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>Tìm hiểu mới về Anroid Architecture</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Platform Architecture</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>General</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://developer.android.com/guide/platform</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>Giới hạn ứng dụng của đối t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -264,100 +322,30 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Meiryo UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>ợng</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;Mô tả flow xử lý nội bộ của đối t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <sz val="8"/>
         <rFont val="Meiryo UI"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ợng&gt;</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Thông tin chi tiết</t>
+      <t>ợng</t>
+    </r>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Example</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>VERSIONING UP HISTORY</t>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Ver.</t>
-    <phoneticPr fontId="26"/>
-  </si>
-  <si>
-    <t>Phân loại</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Overview (EN)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Path</t>
-    <phoneticPr fontId="26"/>
-  </si>
-  <si>
-    <t>Thông tin chi tiết</t>
-    <phoneticPr fontId="26"/>
-  </si>
-  <si>
-    <t>Ghi chú</t>
-    <phoneticPr fontId="26"/>
-  </si>
-  <si>
-    <t>Example</t>
-    <phoneticPr fontId="26"/>
-  </si>
-  <si>
-    <t>Tìm hiểu mới về Anroid Architecture</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Platform Architecture</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>General</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>https://developer.android.com/guide/platform</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>Giới hạn ứng dụng của đối t</t>
+    <t>KHÔNG GIỚI HẠN</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Các thành phần tiêu biểu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nền tảng Linux</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>Cho phép Android tận dụng các tính năng bảo mật chính và cho phép nhà sản xuất thiết bị phát triển trình điểu khiển phần cứng cho nên tảng đ</t>
     </r>
     <r>
       <rPr>
@@ -374,25 +362,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ợng</t>
-    </r>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>KHÔNG GIỚI HẠN</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Các thành phần tiêu biểu</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Nền tảng Linux</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>Cho phép Android tận dụng các tính năng bảo mật chính và cho phép nhà sản xuất thiết bị phát triển trình điểu khiển phần cứng cho nên tảng đ</t>
+      <t>ợc nhiều ng</t>
     </r>
     <r>
       <rPr>
@@ -409,7 +379,21 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ợc nhiều ng</t>
+      <t>ời biết tới</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Hardware Abstraction Layer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Android Runtime</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>Th</t>
     </r>
     <r>
       <rPr>
@@ -426,21 +410,25 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ời biết tới</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Hardware Abstraction Layer</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Android Runtime</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>Th</t>
+      <t xml:space="preserve"> viện C/C++ native</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Java API Framework</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Cung cấp các interfaces chuẩn để thể hiện các chức năng của phần cứng</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Biên dịch interpreted code sang bytecode trong lúc cài đặt phần mềm</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>Dùng để xây dựng các thành phần và dịch vụ core của Anroid nh</t>
     </r>
     <r>
       <rPr>
@@ -457,25 +445,13 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> viện C/C++ native</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Java API Framework</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Cung cấp các interfaces chuẩn để thể hiện các chức năng của phần cứng</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Biên dịch interpreted code sang bytecode trong lúc cài đặt phần mềm</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>Dùng để xây dựng các thành phần và dịch vụ core của Anroid nh</t>
+      <t xml:space="preserve"> Anroid Runtime và Hardware Abtraction Layer (nằm cùng lớp với Anroid Runtime)</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>Cung cấp service d</t>
     </r>
     <r>
       <rPr>
@@ -492,13 +468,21 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> Anroid Runtime và Hardware Abtraction Layer (nằm cùng lớp với Anroid Runtime)</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>Cung cấp service d</t>
+      <t>ới dạng Java class</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Application</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Hiển thị các app hệ thống hoặc các app của developers</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>Android là một HDH mở, tập hợp các thành phần độc lập (lớp kiên trúc, protocol, run-time environment, databases và function call) dựa trên Linux, các thành phần này đ</t>
     </r>
     <r>
       <rPr>
@@ -515,21 +499,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ới dạng Java class</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Application</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Hiển thị các app hệ thống hoặc các app của developers</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>Android là một HDH mở, tập hợp các thành phần độc lập (lớp kiên trúc, protocol, run-time environment, databases và function call) dựa trên Linux, các thành phần này đ</t>
+      <t>ợc hoạt động cùng nhau để hỗ trợ thực thi 1 app (Linux-based sofware stack). Android đ</t>
     </r>
     <r>
       <rPr>
@@ -546,7 +516,8 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ợc hoạt động cùng nhau để hỗ trợ thực thi 1 app (Linux-based sofware stack). Android đ</t>
+      <t>ợc tạo ra để phục vụ nhiềul oại thiết bị và form factor. Các thành phần chính trong Android architecture là:
+1. Nến tảng Linux: C</t>
     </r>
     <r>
       <rPr>
@@ -554,7 +525,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>ư</t>
+      <t>ơ</t>
     </r>
     <r>
       <rPr>
@@ -563,8 +534,8 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ợc tạo ra để phục vụ nhiềul oại thiết bị và form factor. Các thành phần chính trong Android architecture là:
-1. Nến tảng Linux: C</t>
+      <t xml:space="preserve"> sở của Anroid platform
+2. Hardware Abstraction Layer - HAL: bao gồm nhiều modul th</t>
     </r>
     <r>
       <rPr>
@@ -572,7 +543,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>ơ</t>
+      <t>ư</t>
     </r>
     <r>
       <rPr>
@@ -581,8 +552,8 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> sở của Anroid platform
-2. Hardware Abstraction Layer - HAL: bao gồm nhiều modul th</t>
+      <t xml:space="preserve"> viện implement các interfaces cho phần cứng
+3. Android Runtime: là trình biên dịch interpreted code sang bytecode (trình biên dịch AOT) đ</t>
     </r>
     <r>
       <rPr>
@@ -599,8 +570,8 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> viện implement các interfaces cho phần cứng
-3. Android Runtime: là trình biên dịch interpreted code sang bytecode (trình biên dịch AOT) đ</t>
+      <t>ợc sử dụng bởi HDH Anroid
+4. Các th</t>
     </r>
     <r>
       <rPr>
@@ -617,8 +588,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ợc sử dụng bởi HDH Anroid
-4. Các th</t>
+      <t xml:space="preserve"> viện C/C++ native: Dùng để xây dựng các thành phần và dịch vụ core của Anroid nh</t>
     </r>
     <r>
       <rPr>
@@ -635,7 +605,8 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> viện C/C++ native: Dùng để xây dựng các thành phần và dịch vụ core của Anroid nh</t>
+      <t xml:space="preserve"> Anroid Runtime và Hardware Abtraction Layer (nằm cùng lớp với Anroid Runtime)
+5. Java API Framework: Cung cấp service d</t>
     </r>
     <r>
       <rPr>
@@ -652,8 +623,19 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> Anroid Runtime và Hardware Abtraction Layer (nằm cùng lớp với Anroid Runtime)
-5. Java API Framework: Cung cấp service d</t>
+      <t>ới dạng Java class
+6. Application: Hiển thị các app hệ thống hoặc các app của developers</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Các lớp trong Android Architecture</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>Anroid Architecture có 5 lớp:
+1. Nến tảng Linux: C</t>
     </r>
     <r>
       <rPr>
@@ -661,7 +643,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>ư</t>
+      <t>ơ</t>
     </r>
     <r>
       <rPr>
@@ -670,13 +652,66 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
+      <t xml:space="preserve"> sở của Anroid platform
+2. Hardware Abstraction Layer - HAL: bao gồm nhiều modul th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> viện implement các interfaces cho phần cứng
+3. Libraries và Runtime: bao gồm 2 thành phần là C/C++ Libraries và Android runtime
+5. Framework: Cung cấp service d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
       <t>ới dạng Java class
 6. Application: Hiển thị các app hệ thống hoặc các app của developers</t>
     </r>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Flow của Anroid Architecture</t>
+    <t>Libraries và Runtime</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C/C++ Library</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Android runtime</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Framework</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Thành phần cụ thể</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -684,7 +719,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -786,11 +821,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <name val="Meiryo UI"/>
@@ -827,35 +857,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -880,6 +886,30 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1191,7 +1221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1263,99 +1293,99 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1">
@@ -1364,42 +1394,9 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1409,7 +1406,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1421,28 +1418,28 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1460,38 +1457,77 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1852,14 +1888,12 @@
         <v>44148</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>1</v>
-      </c>
+      <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15" t="s">
         <v>2</v>
@@ -1940,7 +1974,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A0EDBB-5C20-4300-A3CE-116632F81475}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1971,10 +2007,10 @@
       <c r="B2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="101"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
     </row>
@@ -1985,10 +2021,10 @@
       <c r="B3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="92"/>
+      <c r="C3" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="82"/>
       <c r="E3" s="36"/>
       <c r="F3" s="37"/>
     </row>
@@ -1999,10 +2035,10 @@
       <c r="B4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="92"/>
+      <c r="C4" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="82"/>
       <c r="E4" s="36"/>
       <c r="F4" s="37"/>
     </row>
@@ -2013,10 +2049,10 @@
       <c r="B5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="99" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="99"/>
+      <c r="C5" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="86"/>
       <c r="E5" s="36"/>
       <c r="F5" s="42"/>
     </row>
@@ -2025,21 +2061,21 @@
         <v>5</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="99" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="99"/>
+        <v>45</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="86"/>
       <c r="E6" s="36"/>
       <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:6" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="96">
+      <c r="A7" s="87">
         <v>6</v>
       </c>
-      <c r="B7" s="93" t="s">
-        <v>49</v>
+      <c r="B7" s="83" t="s">
+        <v>47</v>
       </c>
       <c r="C7" s="44" t="s">
         <v>14</v>
@@ -2051,73 +2087,73 @@
       <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:6" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="97"/>
-      <c r="B8" s="94"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" s="36"/>
       <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:6" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="97"/>
-      <c r="B9" s="94"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:6" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="97"/>
-      <c r="B10" s="94"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:6" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="97"/>
-      <c r="B11" s="94"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:6" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="97"/>
-      <c r="B12" s="94"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:6" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="98"/>
-      <c r="B13" s="95"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="37"/>
@@ -2129,8 +2165,8 @@
       <c r="B14" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="92"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="82"/>
       <c r="E14" s="36"/>
       <c r="F14" s="37"/>
     </row>
@@ -2141,10 +2177,10 @@
       <c r="B15" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="92"/>
+      <c r="C15" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="82"/>
       <c r="E15" s="36"/>
       <c r="F15" s="37"/>
     </row>
@@ -2246,15 +2282,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -2267,7 +2303,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF930A27-EC5D-43C0-A2F2-A994E1C83D62}">
-  <dimension ref="B1:H9"/>
+  <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -2296,121 +2332,165 @@
     </row>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="93" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="62" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="B4" s="63">
-        <f t="shared" ref="B4:B8" si="0">ROW()-3</f>
+      <c r="H3" s="94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="84" x14ac:dyDescent="0.4">
+      <c r="B4" s="95">
+        <f t="shared" ref="B4:B10" si="0">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="64" t="s">
+      <c r="C4" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="96"/>
+      <c r="E4" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="66"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="99"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="63">
+      <c r="B5" s="95">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="66"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="63">
+      <c r="C5" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="98"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="99"/>
+    </row>
+    <row r="6" spans="2:8" ht="24" x14ac:dyDescent="0.4">
+      <c r="B6" s="95">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="66"/>
+      <c r="C6" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="98"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="99"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="63">
+      <c r="B7" s="95">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="66"/>
+      <c r="C7" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="98"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="99"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="63">
+      <c r="B8" s="95">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="66"/>
-    </row>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="68" t="s">
+      <c r="C8" s="100"/>
+      <c r="D8" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="98"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="99"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="95">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="96"/>
+      <c r="E9" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="98"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="99"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="95">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="98"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="99"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C11" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="104"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E11" xr:uid="{9500E426-2D95-48CE-8694-451040514733}">
-      <formula1>"共通,Segment,Itinerary,Leg,-"</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E11" xr:uid="{6F36522B-F8F1-4C05-BE6C-A9F4C36BAB71}">
+      <formula1>"General,Interface,Class,Enum,Exception,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E53:F145" xr:uid="{D86C42D9-67E5-4C0E-9B4C-7C1F9986AA4D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:F64" xr:uid="{D86C42D9-67E5-4C0E-9B4C-7C1F9986AA4D}">
       <formula1>"RQ,RS,Both,-"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E52 F10:F52" xr:uid="{4F6375E6-7442-4970-BBFB-A5131F65C514}">
-      <formula1>"General,RQ,RS,Both,-"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E9" xr:uid="{6F36522B-F8F1-4C05-BE6C-A9F4C36BAB71}">
-      <formula1>"General,Interface,Class,Enum,Exception,Other"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2427,26 +2507,26 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.25" style="54" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="76" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="76" customWidth="1"/>
-    <col min="4" max="4" width="32.25" style="77" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="74" customWidth="1"/>
-    <col min="6" max="6" width="55.375" style="78" customWidth="1"/>
+    <col min="2" max="2" width="3.75" style="65" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="65" customWidth="1"/>
+    <col min="4" max="4" width="32.25" style="66" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="63" customWidth="1"/>
+    <col min="6" max="6" width="55.375" style="67" customWidth="1"/>
     <col min="7" max="7" width="38.875" style="54" customWidth="1"/>
     <col min="8" max="8" width="49" style="54" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="76" customWidth="1"/>
-    <col min="10" max="10" width="17.375" style="76" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="65" customWidth="1"/>
+    <col min="10" max="10" width="17.375" style="65" customWidth="1"/>
     <col min="11" max="16384" width="9" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="58"/>
-      <c r="B1" s="79" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="81"/>
+      <c r="B1" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="70"/>
       <c r="F1" s="58"/>
       <c r="G1" s="58"/>
       <c r="H1" s="58"/>
@@ -2455,59 +2535,59 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="58"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="72"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="61"/>
       <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A3" s="58"/>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="D3" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="G3" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="86" t="s">
+      <c r="H3" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="I3" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="74"/>
+      <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="58"/>
-      <c r="B4" s="87">
+      <c r="B4" s="76">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="55"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="75" t="str">
+      <c r="H4" s="80"/>
+      <c r="I4" s="64" t="str">
         <f ca="1">HYPERLINK("["&amp;SUBSTITUTE(CELL("filename"),TRIM(RIGHT(SUBSTITUTE(CELL("filename"),"\",REPT(" ",255)),255)),"")&amp;"Samples\No"&amp;B4&amp;".xlsx]","click")</f>
         <v>click</v>
       </c>
